--- a/biology/Microbiologie/Halobacteria/Halobacteria.xlsx
+++ b/biology/Microbiologie/Halobacteria/Halobacteria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Halobacteria, ou halobactéries, sont une classe d'archées de l'embranchement (phylum) des Euryarchaeota. Ce sont des microorganismes chimiohétérototrophes qui se développent dans des milieux saturés ou quasiment saturés en sels dissous, tels que les marais salants. Ces concentrations en sel leur sont nécessaires pour vivre, contrairement à d'autres organismes qui peuvent vivre sans et qualifiés d'« halototérants ». On les qualifie d'halophiles, bien que cet adjectif s'applique également à des organismes qui requièrent des salinités moins élevées. On les trouve dans tous les environnements humides riches en matières organiques et en sels.
 Le nom Halobacteria a été attribué à ces organismes avant que le domaine des archées ne soit identifié, à une époque où tous les procaryotes étaient considérés être des bactéries, d'où ce nom qui peut être trompeur. On les trouve parfois désignées sous le terme d’haloarchées pour les distinguer des bactéries halophiles.
@@ -513,12 +525,14 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (3 janv. 2011)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (3 janv. 2011) :
 ordre Halobacteriales
 Halobacteriales incertae sedis
-Selon World Register of Marine Species                               (3 janv. 2011)[3] :
+Selon World Register of Marine Species                               (3 janv. 2011) :
 ordre Halobacteriales</t>
         </is>
       </c>
